--- a/Estimating k(n).xlsx
+++ b/Estimating k(n).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="1200" yWindow="720" windowWidth="28800" windowHeight="16340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="0D" sheetId="1" r:id="rId1"/>
@@ -205,8 +205,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.053948533783046"/>
-                  <c:y val="-0.726360969584684"/>
+                  <c:x val="0.135426640622156"/>
+                  <c:y val="-0.729162090032864"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -485,48 +485,6 @@
                 <c:pt idx="79">
                   <c:v>400.0</c:v>
                 </c:pt>
-                <c:pt idx="80">
-                  <c:v>405.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>410.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>415.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>420.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>425.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>430.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>435.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>440.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>445.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>450.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>455.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>460.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>465.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>470.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -775,48 +733,6 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>0.0293705</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.0249468</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.0272929</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.026226</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.0323648</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.027054</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.0252309</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.0240504</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.0236702</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.0250088</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.022919</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.0265566</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.0282665</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.0246183</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.02031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1116,286 +1032,244 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="94"/>
                 <c:pt idx="0">
-                  <c:v>-0.246350806912359</c:v>
+                  <c:v>-0.235748468972405</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.0952119180373971</c:v>
+                  <c:v>-0.0909530331192489</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0491781163727435</c:v>
+                  <c:v>0.0515114160643465</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.0114636991583825</c:v>
+                  <c:v>-0.0100205974176108</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0453617402158354</c:v>
+                  <c:v>0.0463071872114341</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0487554372778271</c:v>
+                  <c:v>0.0493903152511608</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0269727248825535</c:v>
+                  <c:v>0.0273993059042823</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.0118003260033223</c:v>
+                  <c:v>-0.0115207365553859</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0231300700194075</c:v>
+                  <c:v>0.0233019407128208</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.0198133353011816</c:v>
+                  <c:v>-0.0197227283827736</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00647853316450655</c:v>
+                  <c:v>0.0065064123876902</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.00274558221208865</c:v>
+                  <c:v>-0.00276702511050084</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0190060047936525</c:v>
+                  <c:v>0.0189451906473739</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00511344322166055</c:v>
+                  <c:v>0.00502080689760215</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.000851172755148413</c:v>
+                  <c:v>0.000732547982049525</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00649324134499054</c:v>
+                  <c:v>0.00635320830376673</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00278357489051298</c:v>
+                  <c:v>0.00262577932618943</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.00494712896059329</c:v>
+                  <c:v>-0.00511975002668497</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.012964716015174</c:v>
+                  <c:v>0.0127796606846267</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00740071532216978</c:v>
+                  <c:v>0.00720519094354542</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0221246203570201</c:v>
+                  <c:v>0.0219202555756601</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.00223131098078956</c:v>
+                  <c:v>-0.00244315631558997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.0115933314344275</c:v>
+                  <c:v>-0.0118115142491826</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.00467580551522395</c:v>
+                  <c:v>-0.00489935911455698</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.00802156178982069</c:v>
+                  <c:v>-0.00824966414892579</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.00200139632044938</c:v>
+                  <c:v>0.00176944768562907</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.00514781310168578</c:v>
+                  <c:v>-0.00538300497399484</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.00335150028015338</c:v>
+                  <c:v>0.00311358496381786</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.0063130613732103</c:v>
+                  <c:v>-0.00655325042392272</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0293698697255806</c:v>
+                  <c:v>0.0291277973327912</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.00246968600779315</c:v>
+                  <c:v>-0.00271330180262955</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.00549772101741367</c:v>
+                  <c:v>-0.00574258338275735</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.0129926523179845</c:v>
+                  <c:v>0.0127468032231538</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.0104064385931016</c:v>
+                  <c:v>-0.010653046443196</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.00844940646549797</c:v>
+                  <c:v>0.00820224027986606</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.00700572808035522</c:v>
+                  <c:v>-0.00725327609005828</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.00480767980761356</c:v>
+                  <c:v>-0.00505545394167086</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.000714928946778402</c:v>
+                  <c:v>-0.000962791676755385</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.00375173093423533</c:v>
+                  <c:v>-0.00399956064267138</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.00265255882760564</c:v>
+                  <c:v>-0.002900247866058</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.000473146063993866</c:v>
+                  <c:v>0.000225693049157191</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.00409718332525835</c:v>
+                  <c:v>-0.00434431580956467</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.00170480310278547</c:v>
+                  <c:v>-0.00195154013996619</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.0101154734176077</c:v>
+                  <c:v>0.00986919824710912</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.00361579658612326</c:v>
+                  <c:v>-0.00386155101342812</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.00210856126717728</c:v>
+                  <c:v>-0.00235374278316443</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.00011814705923726</c:v>
+                  <c:v>-0.000126415353607127</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.00131253050630244</c:v>
+                  <c:v>0.00106862805578999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.000101258012324849</c:v>
+                  <c:v>-0.000344464406742358</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.00192490032490197</c:v>
+                  <c:v>-0.00216737883396338</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.00266729979861165</c:v>
+                  <c:v>0.00242557718296712</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-6.37199236615954E-6</c:v>
+                  <c:v>-0.00024731413465004</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.00587133052115034</c:v>
+                  <c:v>-0.00611147068903602</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.0018338179298242</c:v>
+                  <c:v>0.00159449846926164</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.00394408367457476</c:v>
+                  <c:v>0.00370560116322535</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.00550520083824341</c:v>
+                  <c:v>0.005267569274387</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.00104253383188125</c:v>
+                  <c:v>0.000805765191478916</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.00237741682531206</c:v>
+                  <c:v>-0.00261331239040407</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.67907394313488E-5</c:v>
+                  <c:v>-0.000138223244801588</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.000265355513133086</c:v>
+                  <c:v>-0.000499480897565074</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.00345961725348985</c:v>
+                  <c:v>-0.00369284836215343</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.00290999809385326</c:v>
+                  <c:v>0.00267766572329314</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.000431859132118385</c:v>
+                  <c:v>-0.000663289399262037</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.00208192236736403</c:v>
+                  <c:v>0.0018513965771793</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.00166291775974979</c:v>
+                  <c:v>0.00143329792339641</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.00270423126751946</c:v>
+                  <c:v>-0.00293294448382233</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.00497998591303516</c:v>
+                  <c:v>0.00475217925022473</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.0020886489190114</c:v>
+                  <c:v>-0.0023155497570934</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.00363081919271823</c:v>
+                  <c:v>0.00340482285240163</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.00205357976292151</c:v>
+                  <c:v>-0.00227867347253277</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.000190039061659958</c:v>
+                  <c:v>-0.000414232494940717</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.00332112632091317</c:v>
+                  <c:v>0.00309783037025874</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-0.00446061885118409</c:v>
+                  <c:v>-0.00468302050859141</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.000528128748528176</c:v>
+                  <c:v>-0.000749639658002593</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.00425367525378853</c:v>
+                  <c:v>-0.00447429928038109</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.00199585316678</c:v>
+                  <c:v>0.0017761118712721</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.00126505250620613</c:v>
+                  <c:v>0.00104618953332228</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.00240049581845315</c:v>
+                  <c:v>-0.00261848510639308</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.00524967592727614</c:v>
+                  <c:v>0.00503255548242782</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.00156012262342245</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-0.00257591293603192</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>5.14006704965923E-5</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-0.00074051584439758</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.00566724814015647</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.00061959372814201</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-0.000945986957562011</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-0.0018744102753785</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-0.00200780059841292</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-0.000427489878464755</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-0.00228051723834179</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.00158907140965211</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.00352632372100218</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.000100981253823219</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-0.0039888202171098</c:v>
+                  <c:v>0.00134386599850995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1703,8 +1577,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.00384055993000875"/>
-                  <c:y val="-0.776177977752781"/>
+                  <c:x val="0.0837236745406824"/>
+                  <c:y val="-0.780427696537933"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2024,18 +1898,6 @@
                 <c:pt idx="79">
                   <c:v>400.0</c:v>
                 </c:pt>
-                <c:pt idx="80">
-                  <c:v>405.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>410.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>415.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>420.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2046,7 +1908,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="84"/>
                 <c:pt idx="0">
-                  <c:v>0.804211</c:v>
+                  <c:v>1.01486</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.641508</c:v>
@@ -2284,18 +2146,6 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>0.115913</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.128735</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.130978</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.111077</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.122351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2595,7 +2445,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="84"/>
                 <c:pt idx="0">
-                  <c:v>-0.152421855841708</c:v>
+                  <c:v>0.0582271441582917</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-0.0544331632900196</c:v>
@@ -2833,18 +2683,6 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>-0.0120920161495282</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.00145778344174607</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.0044155904491098</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-0.0147832089350527</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-0.00281924447305136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3432,66 +3270,6 @@
                 <c:pt idx="79">
                   <c:v>400.0</c:v>
                 </c:pt>
-                <c:pt idx="80">
-                  <c:v>405.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>410.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>415.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>420.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>425.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>430.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>435.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>440.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>445.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>450.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>455.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>460.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>465.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>470.0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>475.0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>480.0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>485.0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>490.0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>495.0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>500.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3740,66 +3518,6 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>0.255723</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.296524</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.247795</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.26208</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.287513</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.264539</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.262523</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.289147</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.27198</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.262996</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.25838</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.246671</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.227832</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.242015</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.255798</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.265813</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.257266</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.23631</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.234031</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.242416</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.266083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4102,304 +3820,244 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>-0.0251863428921133</c:v>
+                  <c:v>-0.0349460354477571</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.0709889528556465</c:v>
+                  <c:v>-0.0760051062524776</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.0358067885472112</c:v>
+                  <c:v>-0.0387561125431219</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.174128606424725</c:v>
+                  <c:v>0.172388063005446</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00476694712125536</c:v>
+                  <c:v>0.0038357088263381</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.0160298689675074</c:v>
+                  <c:v>-0.0163747385229969</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0157966251229696</c:v>
+                  <c:v>0.0158993068067622</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.00802796485094992</c:v>
+                  <c:v>-0.0075708041161644</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.00975842931386894</c:v>
+                  <c:v>0.0105042403143295</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.0066630214557512</c:v>
+                  <c:v>-0.00567704649690609</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0087731446741261</c:v>
+                  <c:v>0.00996241562284317</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.00860528567691365</c:v>
+                  <c:v>-0.00724148172140587</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.0103717229740667</c:v>
+                  <c:v>-0.00885630589725672</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.0145205244808371</c:v>
+                  <c:v>-0.0128720852600593</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.00629281156875216</c:v>
+                  <c:v>-0.00452665947430741</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.020579481671369</c:v>
+                  <c:v>-0.0187083887550354</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00632631509528691</c:v>
+                  <c:v>0.00829157204080383</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0869498324005652</c:v>
+                  <c:v>0.089000069125294</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0120854880352874</c:v>
+                  <c:v>0.0142128081461105</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00737433740675991</c:v>
+                  <c:v>0.00957189815115983</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0190946536226998</c:v>
+                  <c:v>0.0213564832742953</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.00289012533537697</c:v>
+                  <c:v>-0.000569271677598571</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.00124590596949997</c:v>
+                  <c:v>0.0011293384406173</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.00736721668357309</c:v>
+                  <c:v>0.00979273728355712</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.0211201340006152</c:v>
+                  <c:v>-0.0186480088143957</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.00854910297406097</c:v>
+                  <c:v>0.0110645418664282</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.00986499785151168</c:v>
+                  <c:v>-0.00730920695986892</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.000481116948021776</c:v>
+                  <c:v>0.00307458429274132</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.0418531412070824</c:v>
+                  <c:v>-0.0392244229264362</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0126828083294899</c:v>
+                  <c:v>0.0153445715161574</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.00113902724472542</c:v>
+                  <c:v>0.00155376833808213</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.0265900000159128</c:v>
+                  <c:v>-0.0238680132245372</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.00793635799098613</c:v>
+                  <c:v>0.0106858470540094</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0226394858654664</c:v>
+                  <c:v>0.0254149240502181</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.00418407827596406</c:v>
+                  <c:v>-0.00138412260800819</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.0129495884228194</c:v>
+                  <c:v>-0.0101264378289936</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.0297449975709604</c:v>
+                  <c:v>-0.026899876393464</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.0165801222516921</c:v>
+                  <c:v>0.0194460783517086</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.0158313510236473</c:v>
+                  <c:v>-0.0129456153760308</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.01126497024888</c:v>
+                  <c:v>0.0141695029391072</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.00857596461717946</c:v>
+                  <c:v>-0.00565355109191834</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.00899759930827909</c:v>
+                  <c:v>-0.00605816070034265</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.0114177308200691</c:v>
+                  <c:v>-0.00846206763440871</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.0265364745928273</c:v>
+                  <c:v>-0.0235653367418867</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.000337766208703183</c:v>
+                  <c:v>0.00332367523354887</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.00662732784374187</c:v>
+                  <c:v>0.00962734722478259</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.00791868994488037</c:v>
+                  <c:v>-0.004905181726085</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.0113314025509642</c:v>
+                  <c:v>-0.0083049907589387</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.0384768785423843</c:v>
+                  <c:v>0.0415156421427159</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.00527733722602797</c:v>
+                  <c:v>-0.00222674257894417</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.0206647042668077</c:v>
+                  <c:v>-0.0176027705979574</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.0258680271761561</c:v>
+                  <c:v>-0.0227952198363248</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.0201917515505695</c:v>
+                  <c:v>0.0232749920050062</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.00470743741014989</c:v>
+                  <c:v>-0.00161418131945268</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.00980678021416137</c:v>
+                  <c:v>-0.00670390445733165</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.00116657080710675</c:v>
+                  <c:v>0.00194554871585123</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.0247422027290449</c:v>
+                  <c:v>-0.0216211965893244</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.0121411616735469</c:v>
+                  <c:v>-0.00901160852827387</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.0179759812798785</c:v>
+                  <c:v>0.0211137582418732</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.0210964241687743</c:v>
+                  <c:v>-0.0179507311847354</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.0127291019140808</c:v>
+                  <c:v>-0.00957578625734823</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.0168778443035756</c:v>
+                  <c:v>-0.0137171857548796</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.00243949256830167</c:v>
+                  <c:v>0.00560722698575788</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.00765800682613571</c:v>
+                  <c:v>-0.00448345155690632</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.0017533134882769</c:v>
+                  <c:v>0.00142781892519545</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.00896154974623908</c:v>
+                  <c:v>0.0121490262589702</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.0157725115571759</c:v>
+                  <c:v>0.018966109185429</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.00474554477342992</c:v>
+                  <c:v>-0.00154603951164839</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.00457177851303592</c:v>
+                  <c:v>-0.0013665701191361</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.0339546111526111</c:v>
+                  <c:v>0.0371653266718649</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.0277626124469732</c:v>
+                  <c:v>-0.024546577768025</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.0199582787862878</c:v>
+                  <c:v>0.0231794522766638</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-0.00516402019227519</c:v>
+                  <c:v>-0.0019378810175556</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.0247061543681084</c:v>
+                  <c:v>0.0279370929504381</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.00884456318595872</c:v>
+                  <c:v>-0.0056089849697834</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.00856856623795143</c:v>
+                  <c:v>-0.00532850198442125</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.0132707256567563</c:v>
+                  <c:v>0.0165151282228091</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.0101861317774254</c:v>
+                  <c:v>-0.00693753303903072</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.00261260618257536</c:v>
+                  <c:v>0.000640051902888017</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.00930118730373252</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.0325086141914876</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-0.0152277321834464</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>3.42242988120023E-5</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.026428916546757</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.00440176055665709</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.00331815626300558</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.0308604883368849</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.0145981269359888</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.00650542840974705</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.00276773596270663</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-0.00807561972092316</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-0.0260613198888903</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-0.0110370571662229</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.00357546496801625</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.014408532674635</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.00666842222081537</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-0.0134915995789999</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-0.0149852749461813</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>-0.00582535474341517</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.0186064018987829</c:v>
+                  <c:v>-0.00604460163528036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4735,8 +4393,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.111078277791963"/>
-                  <c:y val="-0.604816811147818"/>
+                  <c:x val="0.0832989434602883"/>
+                  <c:y val="-0.631474701309024"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5015,66 +4673,6 @@
                 <c:pt idx="79">
                   <c:v>400.0</c:v>
                 </c:pt>
-                <c:pt idx="80">
-                  <c:v>405.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>410.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>415.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>420.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>425.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>430.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>435.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>440.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>445.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>450.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>455.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>460.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>465.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>470.0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>475.0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>480.0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>485.0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>490.0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>495.0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>500.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5085,7 +4683,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.987035</c:v>
+                  <c:v>1.23729</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.941615</c:v>
@@ -5323,66 +4921,6 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>0.383032</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.384373</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.388273</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.369777</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.434581</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.389738</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.384669</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.379628</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.378845</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.39632</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.38678</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.349868</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.384536</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.4113</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.352293</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.412281</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.347917</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.385077</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.377635</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.429793</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.366687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5682,304 +5220,244 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>-0.12032779414924</c:v>
+                  <c:v>0.0769652009502153</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00135740803299578</c:v>
+                  <c:v>-0.0347745111873009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.133667771497992</c:v>
+                  <c:v>0.105497680159648</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0524858079676725</c:v>
+                  <c:v>0.0292432596172343</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.0191914390772158</c:v>
+                  <c:v>-0.0389838184436432</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.0363337272779314</c:v>
+                  <c:v>-0.0535300971912271</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.0401141504047807</c:v>
+                  <c:v>-0.0552624141605999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0490847157665545</c:v>
+                  <c:v>0.0356075780631201</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0291884686208764</c:v>
+                  <c:v>0.0171095954894307</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.0110529081288562</c:v>
+                  <c:v>-0.0219387497331422</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.00850362696386064</c:v>
+                  <c:v>-0.0183555279667426</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0189441683264057</c:v>
+                  <c:v>0.00999985044791918</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00696683623353622</c:v>
+                  <c:v>-0.0011722876506477</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.0204736162411114</c:v>
+                  <c:v>-0.0278919181147469</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0209351486662069</c:v>
+                  <c:v>0.0141671434624443</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0377312059621071</c:v>
+                  <c:v>0.0315538167606113</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.0278221414320257</c:v>
+                  <c:v>-0.0334599617265151</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0248456007556076</c:v>
+                  <c:v>0.0197032744395209</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0377234022049929</c:v>
+                  <c:v>0.0330381967194517</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.0231091527187088</c:v>
+                  <c:v>-0.0273708952586598</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.00146347622265242</c:v>
+                  <c:v>-0.00240452268184033</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.0164544412733909</c:v>
+                  <c:v>-0.0199550963474914</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.0506425434065999</c:v>
+                  <c:v>-0.0537994338982327</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0309326840341798</c:v>
+                  <c:v>0.0280983932342045</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.00893625770397221</c:v>
+                  <c:v>-0.0114670330808426</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.0335032164155901</c:v>
+                  <c:v>-0.0357477565178804</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0138361443045277</c:v>
+                  <c:v>0.0118621325971796</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.0218202228511058</c:v>
+                  <c:v>-0.0235380338799236</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.0531886040870321</c:v>
+                  <c:v>0.0517138809039074</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.0135011930790082</c:v>
+                  <c:v>-0.0147448662474489</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.0193339318702765</c:v>
+                  <c:v>-0.0203576376332344</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.017182771811837</c:v>
+                  <c:v>0.0163688029602015</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.00821117235892243</c:v>
+                  <c:v>0.00759747284884288</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0401455368479786</c:v>
+                  <c:v>0.039723324526339</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.000854265889131733</c:v>
+                  <c:v>0.00061537637357556</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.00356999670220115</c:v>
+                  <c:v>0.00350682410275971</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.00663430855034586</c:v>
+                  <c:v>-0.00652886377562145</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.000260713270899049</c:v>
+                  <c:v>0.000528136191582207</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.00882510799544234</c:v>
+                  <c:v>-0.00840192662185335</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.0358964187776153</c:v>
+                  <c:v>-0.0353233153484247</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.023540707909143</c:v>
+                  <c:v>0.0242582479884585</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.038461815890673</c:v>
+                  <c:v>0.0393186293271108</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.00481710392519513</c:v>
+                  <c:v>0.00580832364920869</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.0157225407789694</c:v>
+                  <c:v>-0.0146015088826932</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.0081755129798754</c:v>
+                  <c:v>-0.00692901103924415</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.014982536785308</c:v>
+                  <c:v>0.016350399692484</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.0457652745542917</c:v>
+                  <c:v>-0.0442799438514844</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.0431479580856596</c:v>
+                  <c:v>0.0447470637672218</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.0102519464050874</c:v>
+                  <c:v>0.0119613204631118</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.0237187747684931</c:v>
+                  <c:v>-0.0219024656018674</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.0459808326762828</c:v>
+                  <c:v>-0.0440607600899436</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.0422590033263919</c:v>
+                  <c:v>-0.0402381881789274</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.0566288004841108</c:v>
+                  <c:v>0.0587474783189664</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.00483553997728558</c:v>
+                  <c:v>0.00704933257725071</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.0140820601661367</c:v>
+                  <c:v>0.016388343258537</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.0393100987063661</c:v>
+                  <c:v>0.0417063640266262</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.00746729392941359</c:v>
+                  <c:v>0.00995114217672982</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.0331918078545925</c:v>
+                  <c:v>-0.0306226735205292</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.0373202542937096</c:v>
+                  <c:v>0.03997247432248</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.00950786200929848</c:v>
+                  <c:v>0.0122410582232141</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.00925232316510155</c:v>
+                  <c:v>0.0120644717778191</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.0269351230566887</c:v>
+                  <c:v>-0.0240459648967706</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.0231426984826058</c:v>
+                  <c:v>0.0261069998230807</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.0338630968571554</c:v>
+                  <c:v>-0.0308254463577556</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.0270984495758376</c:v>
+                  <c:v>-0.0239891754502321</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.00371535242669252</c:v>
+                  <c:v>-0.000536115314390184</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.00379684709349431</c:v>
+                  <c:v>-0.000549246097293343</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.00304102112500515</c:v>
+                  <c:v>0.000273403052528709</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.0242330051033823</c:v>
+                  <c:v>-0.020853242980695</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.0245690299744328</c:v>
+                  <c:v>0.0280126975254801</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.00915212487884942</c:v>
+                  <c:v>-0.0056459342713564</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.00030528560630344</c:v>
+                  <c:v>0.00387266462812918</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.0100179830413769</c:v>
+                  <c:v>0.0136452612976609</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.0220646573166247</c:v>
+                  <c:v>0.0257505889588136</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.00668296840196791</c:v>
+                  <c:v>0.0104263489086171</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.0167435480231838</c:v>
+                  <c:v>0.020543212313358</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.00600800122353967</c:v>
+                  <c:v>0.00986282187949433</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.00954209217992807</c:v>
+                  <c:v>-0.00563320658842808</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.0216781762371281</c:v>
+                  <c:v>-0.0177162827338704</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.0106637175950288</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-0.008170204310252</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-0.00313514473785004</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-0.020513066490508</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.0453924845370738</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.00163494508342749</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-0.00236426462041256</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-0.00635074004358299</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-0.00609409159631441</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.0124060560842947</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.00387706480677158</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-0.0320377165410955</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.00361404860516246</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.0313486850503412</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-0.0267004936283189</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.0342328154215387</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-0.0291980951974692</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.00888305731692757</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.00235054639194016</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.055406636482428</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>-0.00681241654756231</c:v>
+                  <c:v>-0.00664984029024829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11136,10 +10614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11152,12 +10630,12 @@
         <v>0.84281300000000003</v>
       </c>
       <c r="C1">
-        <f>4.1892*(A1)^-0.837</f>
-        <v>1.0891638069123588</v>
+        <f>4.1218*(A1)^-0.833</f>
+        <v>1.0785614689724046</v>
       </c>
       <c r="D1">
         <f>B1-C1</f>
-        <v>-0.24635080691235878</v>
+        <v>-0.23574846897240453</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -11168,12 +10646,12 @@
         <v>0.51450899999999999</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C65" si="0">4.1892*(A2)^-0.837</f>
-        <v>0.60972091803739714</v>
+        <f t="shared" ref="C2:C65" si="0">4.1218*(A2)^-0.833</f>
+        <v>0.60546203311924895</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D4" si="1">B2-C2</f>
-        <v>-9.5211918037397147E-2</v>
+        <v>-9.0953033119248961E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -11185,11 +10663,11 @@
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
-        <v>0.43425288362725645</v>
+        <v>0.43191958393565349</v>
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
-        <v>4.9178116372743552E-2</v>
+        <v>5.1511416064346505E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -11201,11 +10679,11 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>0.34132569915838251</v>
+        <v>0.33988259741761079</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>-1.1463699158382523E-2</v>
+        <v>-1.0020597417610799E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -11217,11 +10695,11 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>0.28317525978416458</v>
+        <v>0.28222981278856596</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D2:D65" si="2">B5-C5</f>
-        <v>4.5361740215835444E-2</v>
+        <v>4.6307187211434064E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -11233,11 +10711,11 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0.24309756272217287</v>
+        <v>0.24246268474883911</v>
       </c>
       <c r="D6">
         <f t="shared" si="2"/>
-        <v>4.8755437277827107E-2</v>
+        <v>4.939031525116086E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -11249,11 +10727,11 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0.21367127511744652</v>
+        <v>0.2132446940957177</v>
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>2.6972724882553478E-2</v>
+        <v>2.7399305904282301E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -11265,11 +10743,11 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>0.19107632600332233</v>
+        <v>0.19079673655538587</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>-1.1800326003322342E-2</v>
+        <v>-1.152073655538588E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -11281,11 +10759,11 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>0.17313792998059246</v>
+        <v>0.17296605928717923</v>
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
-        <v>2.3130070019407534E-2</v>
+        <v>2.3301940712820768E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -11297,11 +10775,11 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0.15852333530118157</v>
+        <v>0.15843272838277356</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>-1.9813335301181567E-2</v>
+        <v>-1.9722728382773558E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -11313,11 +10791,11 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>0.14636846683549345</v>
+        <v>0.14634058761230981</v>
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>6.4785331645065558E-3</v>
+        <v>6.5064123876902025E-3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -11329,11 +10807,11 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>0.13608758221208864</v>
+        <v>0.13610902511050083</v>
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
-        <v>-2.7455822120886486E-3</v>
+        <v>-2.767025110500837E-3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -11345,11 +10823,11 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>0.12726899520634752</v>
+        <v>0.12732980935262611</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>1.900600479365247E-2</v>
+        <v>1.8945190647373877E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -11361,11 +10839,11 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>0.11961455677833946</v>
+        <v>0.11970719310239786</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>5.1134432216605463E-3</v>
+        <v>5.020806897602148E-3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -11377,11 +10855,11 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>0.11290282724485158</v>
+        <v>0.11302145201795047</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>8.5117275514841328E-4</v>
+        <v>7.3254798204952509E-4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -11393,11 +10871,11 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>0.10696575865500946</v>
+        <v>0.10710579169623327</v>
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>6.4932413449905468E-3</v>
+        <v>6.3532083037667331E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -11409,11 +10887,11 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>0.10167342510948701</v>
+        <v>0.10183122067381056</v>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>2.7835748905129798E-3</v>
+        <v>2.6257793261894313E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -11425,11 +10903,11 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>9.69237289605933E-2</v>
+        <v>9.7096350026684972E-2</v>
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>-4.9471289605932944E-3</v>
+        <v>-5.119750026684966E-3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -11441,11 +10919,11 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>9.2635283984825983E-2</v>
+        <v>9.2820339315373326E-2</v>
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>1.2964716015174016E-2</v>
+        <v>1.2779660684626673E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -11457,11 +10935,11 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>8.8742384677830216E-2</v>
+        <v>8.8937909056454573E-2</v>
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>7.4007153221697791E-3</v>
+        <v>7.2051909435454226E-3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -11473,11 +10951,11 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>8.5191379642979889E-2</v>
+        <v>8.5395744424339934E-2</v>
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>2.2124620357020106E-2</v>
+        <v>2.1920255575660061E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -11489,11 +10967,11 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>8.1938010980789566E-2</v>
+        <v>8.2149856315589978E-2</v>
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
-        <v>-2.2313109807895609E-3</v>
+        <v>-2.4431563155899727E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -11505,11 +10983,11 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>7.8945431434427477E-2</v>
+        <v>7.9163614249182571E-2</v>
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
-        <v>-1.1593331434427478E-2</v>
+        <v>-1.1811514249182573E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -11521,11 +10999,11 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>7.618270551522395E-2</v>
+        <v>7.6406259114556979E-2</v>
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
-        <v>-4.6758055152239519E-3</v>
+        <v>-4.8993591145569809E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -11537,11 +11015,11 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>7.3623661789820688E-2</v>
+        <v>7.3851764148925789E-2</v>
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
-        <v>-8.0215617898206915E-3</v>
+        <v>-8.2496641489257921E-3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -11553,11 +11031,11 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>7.1246003679550626E-2</v>
+        <v>7.1477952314370929E-2</v>
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
-        <v>2.0013963204493779E-3</v>
+        <v>1.7694476856290747E-3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -11569,11 +11047,11 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>6.9030613101685789E-2</v>
+        <v>6.9265804973994843E-2</v>
       </c>
       <c r="D27">
         <f t="shared" si="2"/>
-        <v>-5.1478131016857859E-3</v>
+        <v>-5.3830049739948399E-3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -11585,11 +11063,11 @@
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>6.696099971984662E-2</v>
+        <v>6.7198915036182139E-2</v>
       </c>
       <c r="D28">
         <f t="shared" si="2"/>
-        <v>3.35150028015338E-3</v>
+        <v>3.1135849638178614E-3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -11601,11 +11079,11 @@
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>6.5022861373210297E-2</v>
+        <v>6.5263050423922719E-2</v>
       </c>
       <c r="D29">
         <f t="shared" si="2"/>
-        <v>-6.3130613732102978E-3</v>
+        <v>-6.5532504239227199E-3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -11617,11 +11095,11 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>6.3203730274419404E-2</v>
+        <v>6.3445802667208756E-2</v>
       </c>
       <c r="D30">
         <f t="shared" si="2"/>
-        <v>2.9369869725580602E-2</v>
+        <v>2.912779733279125E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -11633,11 +11111,11 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>6.1492686007793153E-2</v>
+        <v>6.1736301802629553E-2</v>
       </c>
       <c r="D31">
         <f t="shared" si="2"/>
-        <v>-2.4696860077931537E-3</v>
+        <v>-2.7133018026295544E-3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -11649,11 +11127,11 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>5.9880121017413669E-2</v>
+        <v>6.0124983382757353E-2</v>
       </c>
       <c r="D32">
         <f t="shared" si="2"/>
-        <v>-5.4977210174136718E-3</v>
+        <v>-5.7425833827573561E-3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -11665,11 +11143,11 @@
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>5.8357547682015544E-2</v>
+        <v>5.8603396776846194E-2</v>
       </c>
       <c r="D33">
         <f t="shared" si="2"/>
-        <v>1.2992652317984459E-2</v>
+        <v>1.2746803223153809E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -11681,11 +11159,11 @@
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>5.6917438593101617E-2</v>
+        <v>5.7164046443195997E-2</v>
       </c>
       <c r="D34">
         <f t="shared" si="2"/>
-        <v>-1.040643859310162E-2</v>
+        <v>-1.0653046443196E-2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -11697,11 +11175,11 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>5.5553093534502031E-2</v>
+        <v>5.5800259720133943E-2</v>
       </c>
       <c r="D35">
         <f t="shared" si="2"/>
-        <v>8.4494064654979731E-3</v>
+        <v>8.2022402798660604E-3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -11713,11 +11191,11 @@
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>5.4258528080355216E-2</v>
+        <v>5.4506076090058281E-2</v>
       </c>
       <c r="D36">
         <f t="shared" si="2"/>
-        <v>-7.0057280803552183E-3</v>
+        <v>-7.2532760900582832E-3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -11729,11 +11207,11 @@
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>5.302837980761356E-2</v>
+        <v>5.3276153941670859E-2</v>
       </c>
       <c r="D37">
         <f t="shared" si="2"/>
-        <v>-4.8076798076135616E-3</v>
+        <v>-5.0554539416708608E-3</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -11745,11 +11223,11 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>5.18578289467784E-2</v>
+        <v>5.2105691676755383E-2</v>
       </c>
       <c r="D38">
         <f t="shared" si="2"/>
-        <v>-7.149289467784023E-4</v>
+        <v>-9.6279167675538541E-4</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -11761,11 +11239,11 @@
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>5.0742530934235329E-2</v>
+        <v>5.099036064267138E-2</v>
       </c>
       <c r="D39">
         <f t="shared" si="2"/>
-        <v>-3.7517309342353297E-3</v>
+        <v>-3.9995606426713806E-3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -11777,11 +11255,11 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>4.9678558827605641E-2</v>
+        <v>4.9926247866058003E-2</v>
       </c>
       <c r="D40">
         <f t="shared" si="2"/>
-        <v>-2.652558827605643E-3</v>
+        <v>-2.9002478660580047E-3</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -11793,11 +11271,11 @@
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>4.8662353936006132E-2</v>
+        <v>4.8909806950842807E-2</v>
       </c>
       <c r="D41">
         <f t="shared" si="2"/>
-        <v>4.7314606399386644E-4</v>
+        <v>2.2569304915719124E-4</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -11809,11 +11287,11 @@
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>4.7690683325258353E-2</v>
+        <v>4.7937815809564674E-2</v>
       </c>
       <c r="D42">
         <f t="shared" si="2"/>
-        <v>-4.0971833252583523E-3</v>
+        <v>-4.3443158095646736E-3</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -11825,11 +11303,11 @@
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>4.6760603102785472E-2</v>
+        <v>4.7007340139966193E-2</v>
       </c>
       <c r="D43">
         <f t="shared" si="2"/>
-        <v>-1.7048031027854724E-3</v>
+        <v>-1.951540139966193E-3</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -11841,11 +11319,11 @@
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>4.5869426582392306E-2</v>
+        <v>4.611570175289087E-2</v>
       </c>
       <c r="D44">
         <f t="shared" si="2"/>
-        <v>1.0115473417607691E-2</v>
+        <v>9.8691982471091275E-3</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -11857,11 +11335,11 @@
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>4.5014696586123261E-2</v>
+        <v>4.5260451013428127E-2</v>
       </c>
       <c r="D45">
         <f t="shared" si="2"/>
-        <v>-3.6157965861232585E-3</v>
+        <v>-3.8615510134281245E-3</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -11873,11 +11351,11 @@
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>4.4194161267177283E-2</v>
+        <v>4.4439342783164429E-2</v>
       </c>
       <c r="D46">
         <f t="shared" si="2"/>
-        <v>-2.1085612671772822E-3</v>
+        <v>-2.3537427831644281E-3</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -11889,11 +11367,11 @@
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>4.3405752940762737E-2</v>
+        <v>4.3650315353607125E-2</v>
       </c>
       <c r="D47">
         <f t="shared" si="2"/>
-        <v>1.1814705923725993E-4</v>
+        <v>-1.2641535360712747E-4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -11905,11 +11383,11 @@
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>4.2647569493697565E-2</v>
+        <v>4.2891471944210016E-2</v>
       </c>
       <c r="D48">
         <f t="shared" si="2"/>
-        <v>1.3125305063024367E-3</v>
+        <v>1.0686280557899858E-3</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -11921,11 +11399,11 @@
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>4.1917858012324852E-2</v>
+        <v>4.216106440674236E-2</v>
       </c>
       <c r="D49">
         <f t="shared" si="2"/>
-        <v>-1.0125801232484938E-4</v>
+        <v>-3.4446440674235773E-4</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -11937,11 +11415,11 @@
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>4.1215000324901968E-2</v>
+        <v>4.1457478833963383E-2</v>
       </c>
       <c r="D50">
         <f t="shared" si="2"/>
-        <v>-1.9249003249019667E-3</v>
+        <v>-2.167378833963382E-3</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -11953,11 +11431,11 @@
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>4.0537500201388355E-2</v>
+        <v>4.0779222817032883E-2</v>
       </c>
       <c r="D51">
         <f t="shared" si="2"/>
-        <v>2.667299798611647E-3</v>
+        <v>2.4255771829671188E-3</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -11969,11 +11447,11 @@
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>3.9883971992366159E-2</v>
+        <v>4.0124914134650039E-2</v>
       </c>
       <c r="D52">
         <f t="shared" si="2"/>
-        <v>-6.3719923661595401E-6</v>
+        <v>-2.473141346500396E-4</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -11985,11 +11463,11 @@
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>3.9253130521150349E-2</v>
+        <v>3.9493270689036027E-2</v>
       </c>
       <c r="D53">
         <f t="shared" si="2"/>
-        <v>-5.8713305211503461E-3</v>
+        <v>-6.1114706890360235E-3</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -12001,11 +11479,11 @@
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>3.8643782070175804E-2</v>
+        <v>3.8883101530738359E-2</v>
       </c>
       <c r="D54">
         <f t="shared" si="2"/>
-        <v>1.8338179298241983E-3</v>
+        <v>1.5944984692616432E-3</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -12017,11 +11495,11 @@
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>3.8054816325425234E-2</v>
+        <v>3.8293298836774646E-2</v>
       </c>
       <c r="D55">
         <f t="shared" si="2"/>
-        <v>3.9440836745747651E-3</v>
+        <v>3.7056011632253527E-3</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -12033,11 +11511,11 @@
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>3.7485199161756591E-2</v>
+        <v>3.7722830725612999E-2</v>
       </c>
       <c r="D56">
         <f t="shared" si="2"/>
-        <v>5.505200838243407E-3</v>
+        <v>5.267569274386999E-3</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -12049,11 +11527,11 @@
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>3.6933966168118754E-2</v>
+        <v>3.7170734808521087E-2</v>
       </c>
       <c r="D57">
         <f t="shared" si="2"/>
-        <v>1.0425338318812497E-3</v>
+        <v>8.0576519147891601E-4</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -12065,11 +11543,11 @@
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>3.6400216825312061E-2</v>
+        <v>3.6636112390404069E-2</v>
       </c>
       <c r="D58">
         <f t="shared" si="2"/>
-        <v>-2.377416825312062E-3</v>
+        <v>-2.6133123904040698E-3</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -12081,11 +11559,11 @@
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>3.5883109260568653E-2</v>
+        <v>3.6118123244801591E-2</v>
       </c>
       <c r="D59">
         <f t="shared" si="2"/>
-        <v>9.679073943134886E-5</v>
+        <v>-1.3822324480158854E-4</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -12097,11 +11575,11 @@
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>3.5381855513133088E-2</v>
+        <v>3.5615980897565076E-2</v>
       </c>
       <c r="D60">
         <f t="shared" si="2"/>
-        <v>-2.6535551313308647E-4</v>
+        <v>-4.9948089756507441E-4</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -12113,11 +11591,11 @@
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>3.4895717253489854E-2</v>
+        <v>3.5128948362153432E-2</v>
       </c>
       <c r="D61">
         <f t="shared" si="2"/>
-        <v>-3.4596172534898523E-3</v>
+        <v>-3.6928483621534308E-3</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -12129,11 +11607,11 @@
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>3.4424001906146737E-2</v>
+        <v>3.4656334276706863E-2</v>
       </c>
       <c r="D62">
         <f t="shared" si="2"/>
-        <v>2.9099980938532624E-3</v>
+        <v>2.6776657232931364E-3</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -12145,11 +11623,11 @@
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>3.3966059132118386E-2</v>
+        <v>3.4197489399262038E-2</v>
       </c>
       <c r="D63">
         <f t="shared" si="2"/>
-        <v>-4.3185913211838539E-4</v>
+        <v>-6.6328939926203756E-4</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -12161,11 +11639,11 @@
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>3.3521277632635973E-2</v>
+        <v>3.3751803422820706E-2</v>
       </c>
       <c r="D64">
         <f t="shared" si="2"/>
-        <v>2.081922367364028E-3</v>
+        <v>1.8513965771792956E-3</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -12177,11 +11655,11 @@
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>3.3089082240250207E-2</v>
+        <v>3.331870207660359E-2</v>
       </c>
       <c r="D65">
         <f t="shared" si="2"/>
-        <v>1.6629177597497907E-3</v>
+        <v>1.433297923396408E-3</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -12192,12 +11670,12 @@
         <v>2.99647E-2</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C94" si="3">4.1892*(A66)^-0.837</f>
-        <v>3.2668931267519456E-2</v>
+        <f t="shared" ref="C66:C80" si="3">4.1218*(A66)^-0.833</f>
+        <v>3.2897644483822333E-2</v>
       </c>
       <c r="D66">
         <f t="shared" ref="D66:D94" si="4">B66-C66</f>
-        <v>-2.7042312675194559E-3</v>
+        <v>-2.9329444838223327E-3</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -12209,11 +11687,11 @@
       </c>
       <c r="C67">
         <f t="shared" si="3"/>
-        <v>3.2260314086964836E-2</v>
+        <v>3.2488120749775265E-2</v>
       </c>
       <c r="D67">
         <f t="shared" si="4"/>
-        <v>4.9799859130351606E-3</v>
+        <v>4.752179250224732E-3</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -12225,11 +11703,11 @@
       </c>
       <c r="C68">
         <f t="shared" si="3"/>
-        <v>3.1862748919011398E-2</v>
+        <v>3.2089649757093407E-2</v>
       </c>
       <c r="D68">
         <f t="shared" si="4"/>
-        <v>-2.0886489190113967E-3</v>
+        <v>-2.3155497570934054E-3</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -12241,11 +11719,11 @@
       </c>
       <c r="C69">
         <f t="shared" si="3"/>
-        <v>3.1475780807281771E-2</v>
+        <v>3.1701777147598371E-2</v>
       </c>
       <c r="D69">
         <f t="shared" si="4"/>
-        <v>3.6308191927182307E-3</v>
+        <v>3.4048228524016302E-3</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -12257,11 +11735,11 @@
       </c>
       <c r="C70">
         <f t="shared" si="3"/>
-        <v>3.1098979762921506E-2</v>
+        <v>3.1324073472532771E-2</v>
       </c>
       <c r="D70">
         <f t="shared" si="4"/>
-        <v>-2.053579762921507E-3</v>
+        <v>-2.2786734725327717E-3</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -12273,11 +11751,11 @@
       </c>
       <c r="C71">
         <f t="shared" si="3"/>
-        <v>3.0731939061659958E-2</v>
+        <v>3.0956132494940718E-2</v>
       </c>
       <c r="D71">
         <f t="shared" si="4"/>
-        <v>-1.9003906165995788E-4</v>
+        <v>-4.1423249494071737E-4</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -12289,11 +11767,11 @@
       </c>
       <c r="C72">
         <f t="shared" si="3"/>
-        <v>3.0374273679086825E-2</v>
+        <v>3.0597569629741264E-2</v>
       </c>
       <c r="D72">
         <f t="shared" si="4"/>
-        <v>3.3211263209131751E-3</v>
+        <v>3.0978303702587362E-3</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -12305,11 +11783,11 @@
       </c>
       <c r="C73">
         <f t="shared" si="3"/>
-        <v>3.0025618851184092E-2</v>
+        <v>3.0248020508591413E-2</v>
       </c>
       <c r="D73">
         <f t="shared" si="4"/>
-        <v>-4.4606188511840915E-3</v>
+        <v>-4.6830205085914116E-3</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -12321,11 +11799,11 @@
       </c>
       <c r="C74">
         <f t="shared" si="3"/>
-        <v>2.9685628748528176E-2</v>
+        <v>2.9907139658002593E-2</v>
       </c>
       <c r="D74">
         <f t="shared" si="4"/>
-        <v>-5.2812874852817618E-4</v>
+        <v>-7.4963965800259325E-4</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -12337,11 +11815,11 @@
       </c>
       <c r="C75">
         <f t="shared" si="3"/>
-        <v>2.9353975253788529E-2</v>
+        <v>2.9574599280381093E-2</v>
       </c>
       <c r="D75">
         <f t="shared" si="4"/>
-        <v>-4.2536752537885303E-3</v>
+        <v>-4.4742992803810944E-3</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -12353,11 +11831,11 @@
       </c>
       <c r="C76">
         <f t="shared" si="3"/>
-        <v>2.9030346833219995E-2</v>
+        <v>2.9250088128727897E-2</v>
       </c>
       <c r="D76">
         <f t="shared" si="4"/>
-        <v>1.9958531667800053E-3</v>
+        <v>1.7761118712721034E-3</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -12369,11 +11847,11 @@
       </c>
       <c r="C77">
         <f t="shared" si="3"/>
-        <v>2.8714447493793867E-2</v>
+        <v>2.8933310466677718E-2</v>
       </c>
       <c r="D77">
         <f t="shared" si="4"/>
-        <v>1.2650525062061317E-3</v>
+        <v>1.0461895333222816E-3</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -12385,11 +11863,11 @@
       </c>
       <c r="C78">
         <f t="shared" si="3"/>
-        <v>2.8405995818453156E-2</v>
+        <v>2.8623985106393086E-2</v>
       </c>
       <c r="D78">
         <f t="shared" si="4"/>
-        <v>-2.400495818453155E-3</v>
+        <v>-2.6184851063930856E-3</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -12401,11 +11879,11 @@
       </c>
       <c r="C79">
         <f t="shared" si="3"/>
-        <v>2.8104724072723856E-2</v>
+        <v>2.8321844517572182E-2</v>
       </c>
       <c r="D79">
         <f t="shared" si="4"/>
-        <v>5.2496759272761435E-3</v>
+        <v>5.0325554824278175E-3</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -12417,235 +11895,11 @@
       </c>
       <c r="C80">
         <f t="shared" si="3"/>
-        <v>2.7810377376577548E-2</v>
+        <v>2.8026634001490046E-2</v>
       </c>
       <c r="D80">
         <f t="shared" si="4"/>
-        <v>1.5601226234224531E-3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>405</v>
-      </c>
-      <c r="B81">
-        <v>2.4946800000000002E-2</v>
-      </c>
-      <c r="C81">
-        <f t="shared" si="3"/>
-        <v>2.752271293603192E-2</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="4"/>
-        <v>-2.5759129360319183E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>410</v>
-      </c>
-      <c r="B82">
-        <v>2.7292899999999998E-2</v>
-      </c>
-      <c r="C82">
-        <f t="shared" si="3"/>
-        <v>2.7241499329503406E-2</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="4"/>
-        <v>5.1400670496592332E-5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>415</v>
-      </c>
-      <c r="B83">
-        <v>2.6225999999999999E-2</v>
-      </c>
-      <c r="C83">
-        <f t="shared" si="3"/>
-        <v>2.696651584439758E-2</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="4"/>
-        <v>-7.4051584439758025E-4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>420</v>
-      </c>
-      <c r="B84">
-        <v>3.2364799999999999E-2</v>
-      </c>
-      <c r="C84">
-        <f t="shared" si="3"/>
-        <v>2.669755185984353E-2</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="4"/>
-        <v>5.6672481401564695E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>425</v>
-      </c>
-      <c r="B85">
-        <v>2.7054000000000002E-2</v>
-      </c>
-      <c r="C85">
-        <f t="shared" si="3"/>
-        <v>2.6434406271857992E-2</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="4"/>
-        <v>6.1959372814201011E-4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>430</v>
-      </c>
-      <c r="B86">
-        <v>2.5230900000000001E-2</v>
-      </c>
-      <c r="C86">
-        <f t="shared" si="3"/>
-        <v>2.6176886957562012E-2</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="4"/>
-        <v>-9.4598695756201168E-4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>435</v>
-      </c>
-      <c r="B87">
-        <v>2.40504E-2</v>
-      </c>
-      <c r="C87">
-        <f t="shared" si="3"/>
-        <v>2.5924810275378501E-2</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="4"/>
-        <v>-1.8744102753785012E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>440</v>
-      </c>
-      <c r="B88">
-        <v>2.3670199999999999E-2</v>
-      </c>
-      <c r="C88">
-        <f t="shared" si="3"/>
-        <v>2.5678000598412923E-2</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="4"/>
-        <v>-2.0078005984129239E-3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>445</v>
-      </c>
-      <c r="B89">
-        <v>2.5008800000000001E-2</v>
-      </c>
-      <c r="C89">
-        <f t="shared" si="3"/>
-        <v>2.5436289878464757E-2</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="4"/>
-        <v>-4.2748987846475545E-4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>450</v>
-      </c>
-      <c r="B90">
-        <v>2.2918999999999998E-2</v>
-      </c>
-      <c r="C90">
-        <f t="shared" si="3"/>
-        <v>2.5199517238341792E-2</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="4"/>
-        <v>-2.2805172383417935E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>455</v>
-      </c>
-      <c r="B91">
-        <v>2.65566E-2</v>
-      </c>
-      <c r="C91">
-        <f t="shared" si="3"/>
-        <v>2.4967528590347888E-2</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="4"/>
-        <v>1.5890714096521118E-3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>460</v>
-      </c>
-      <c r="B92">
-        <v>2.82665E-2</v>
-      </c>
-      <c r="C92">
-        <f t="shared" si="3"/>
-        <v>2.4740176278997821E-2</v>
-      </c>
-      <c r="D92">
-        <f t="shared" si="4"/>
-        <v>3.5263237210021794E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>465</v>
-      </c>
-      <c r="B93">
-        <v>2.4618299999999999E-2</v>
-      </c>
-      <c r="C93">
-        <f t="shared" si="3"/>
-        <v>2.451731874617678E-2</v>
-      </c>
-      <c r="D93">
-        <f t="shared" si="4"/>
-        <v>1.0098125382321937E-4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>470</v>
-      </c>
-      <c r="B94">
-        <v>2.0310000000000002E-2</v>
-      </c>
-      <c r="C94">
-        <f t="shared" si="3"/>
-        <v>2.4298820217109805E-2</v>
-      </c>
-      <c r="D94">
-        <f t="shared" si="4"/>
-        <v>-3.9888202171098029E-3</v>
+        <v>1.3438659985099549E-3</v>
       </c>
     </row>
   </sheetData>
@@ -12656,9 +11910,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -12669,7 +11923,7 @@
         <v>5</v>
       </c>
       <c r="B1">
-        <v>0.80421100000000001</v>
+        <v>1.0148600000000001</v>
       </c>
       <c r="C1">
         <f>2.0025*A1^-0.459</f>
@@ -12677,7 +11931,7 @@
       </c>
       <c r="D1">
         <f>B1-C1</f>
-        <v>-0.15242185584170842</v>
+        <v>5.8227144158291666E-2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -13942,70 +13196,6 @@
       <c r="D80">
         <f t="shared" si="3"/>
         <v>-1.209201614952822E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>405</v>
-      </c>
-      <c r="B81">
-        <v>0.12873499999999999</v>
-      </c>
-      <c r="C81">
-        <f t="shared" si="2"/>
-        <v>0.12727721655825391</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="3"/>
-        <v>1.4577834417460744E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>410</v>
-      </c>
-      <c r="B82">
-        <v>0.13097800000000001</v>
-      </c>
-      <c r="C82">
-        <f t="shared" si="2"/>
-        <v>0.12656240955089021</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="3"/>
-        <v>4.4155904491098019E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>415</v>
-      </c>
-      <c r="B83">
-        <v>0.111077</v>
-      </c>
-      <c r="C83">
-        <f t="shared" si="2"/>
-        <v>0.12586020893505273</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="3"/>
-        <v>-1.4783208935052736E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>420</v>
-      </c>
-      <c r="B84">
-        <v>0.122351</v>
-      </c>
-      <c r="C84">
-        <f t="shared" si="2"/>
-        <v>0.12517024447305136</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="3"/>
-        <v>-2.8192444730513605E-3</v>
       </c>
     </row>
   </sheetData>
@@ -14016,10 +13206,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14032,12 +13222,12 @@
         <v>0.992313</v>
       </c>
       <c r="C1">
-        <f>1.6677*A1^-0.307</f>
-        <v>1.0174993428921133</v>
+        <f>1.6973*A1^-0.312</f>
+        <v>1.0272590354477571</v>
       </c>
       <c r="D1">
         <f>B1-C1</f>
-        <v>-2.51863428921133E-2</v>
+        <v>-3.4946035447757096E-2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -14048,12 +13238,12 @@
         <v>0.75147699999999995</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C65" si="0">1.6677*A2^-0.307</f>
-        <v>0.8224659528556465</v>
+        <f t="shared" ref="C2:C65" si="0">1.6973*A2^-0.312</f>
+        <v>0.82748210625247753</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D65" si="1">B2-C2</f>
-        <v>-7.0988952855646548E-2</v>
+        <v>-7.6005106252477583E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -14065,11 +13255,11 @@
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
-        <v>0.72620278854721121</v>
+        <v>0.72915211254312196</v>
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
-        <v>-3.5806788547211199E-2</v>
+        <v>-3.8756112543121946E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -14081,11 +13271,11 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>0.66481639357527489</v>
+        <v>0.66655693699455365</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>0.17412860642472516</v>
+        <v>0.1723880630054464</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -14097,11 +13287,11 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>0.62079805287874468</v>
+        <v>0.62172929117366194</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>4.7669471212553605E-3</v>
+        <v>3.8357088263381023E-3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -14113,11 +13303,11 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0.58700486896750736</v>
+        <v>0.58734973852299688</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>-1.6029868967507355E-2</v>
+        <v>-1.6374738522996868E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -14129,11 +13319,11 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0.55987237487703034</v>
+        <v>0.55976969319323777</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>1.5796625122969643E-2</v>
+        <v>1.5899306806762215E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -14145,11 +13335,11 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>0.53738496485094989</v>
+        <v>0.53692780411616436</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>-8.0279648509499202E-3</v>
+        <v>-7.570804116164398E-3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -14161,11 +13351,11 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>0.518300570686131</v>
+        <v>0.51755475968567044</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>9.7584293138689437E-3</v>
+        <v>1.0504240314329505E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -14177,11 +13367,11 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0.5018040214557512</v>
+        <v>0.50081804649690609</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>-6.6630214557512057E-3</v>
+        <v>-5.6770464969060908E-3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -14193,11 +13383,11 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>0.48733385532587392</v>
+        <v>0.48614458437715685</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>8.7731446741260988E-3</v>
+        <v>9.9624156228431682E-3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -14209,11 +13399,11 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>0.47448828567691365</v>
+        <v>0.47312448172140587</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>-8.6052856769136543E-3</v>
+        <v>-7.2414817214058735E-3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -14225,11 +13415,11 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>0.46297072297406672</v>
+        <v>0.4614553058972567</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>-1.0371722974066744E-2</v>
+        <v>-8.8563058972567221E-3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -14241,11 +13431,11 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>0.45255652448083711</v>
+        <v>0.45090808526005927</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>-1.4520524480837127E-2</v>
+        <v>-1.2872085260059285E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -14257,11 +13447,11 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>0.44307181156875214</v>
+        <v>0.44130565947430739</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>-6.2928115687521657E-3</v>
+        <v>-4.5266594743074151E-3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -14273,11 +13463,11 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>0.43437948167136897</v>
+        <v>0.43250838875503544</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>-2.0579481671368971E-2</v>
+        <v>-1.8708388755035443E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -14289,11 +13479,11 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>0.42636968490471311</v>
+        <v>0.4244044279591962</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>6.3263150952869163E-3</v>
+        <v>8.2915720408038296E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -14305,11 +13495,11 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>0.41895316759943474</v>
+        <v>0.41690293087470598</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>8.6949832400565252E-2</v>
+        <v>8.9000069125294012E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -14321,11 +13511,11 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>0.4120565119647126</v>
+        <v>0.40992919185388949</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>1.2085488035287417E-2</v>
+        <v>1.4212808146110534E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -14337,11 +13527,11 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>0.40561866259324009</v>
+        <v>0.40342110184884017</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>7.3743374067599121E-3</v>
+        <v>9.57189815115983E-3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -14353,11 +13543,11 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>0.39958834637730017</v>
+        <v>0.39732651672570468</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>1.9094653622699853E-2</v>
+        <v>2.1356483274295346E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -14369,11 +13559,11 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>0.39392212533537696</v>
+        <v>0.39160127167759856</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>-2.8901253353769696E-3</v>
+        <v>-5.6927167759857067E-4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -14385,11 +13575,11 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>0.38858290596949996</v>
+        <v>0.38620766155938269</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>-1.2459059694999719E-3</v>
+        <v>1.1293384406173002E-3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -14401,11 +13591,11 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>0.38353878331642688</v>
+        <v>0.38111326271644286</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>7.3672166835730968E-3</v>
+        <v>9.792737283557118E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -14417,11 +13607,11 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>0.3787621340006152</v>
+        <v>0.37629000881439567</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>-2.1120134000615187E-2</v>
+        <v>-1.8648008814395656E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -14433,11 +13623,11 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>0.37422889702593903</v>
+        <v>0.37171345813357182</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>8.5491029740609736E-3</v>
+        <v>1.106454186642819E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -14449,11 +13639,11 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>0.36991799785151169</v>
+        <v>0.36736220695986893</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>-9.864997851511681E-3</v>
+        <v>-7.3092069598689191E-3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -14465,11 +13655,11 @@
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>0.36581088305197823</v>
+        <v>0.36321741570725868</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>4.8111694802177585E-4</v>
+        <v>3.0745842927413225E-3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -14481,11 +13671,11 @@
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>0.36189114120708238</v>
+        <v>0.35926242292643623</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>-4.1853141207082389E-2</v>
+        <v>-3.9224422926436242E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -14497,11 +13687,11 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>0.35814419167051015</v>
+        <v>0.35548242848384265</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>1.268280832948987E-2</v>
+        <v>1.5344571516157368E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -14513,11 +13703,11 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>0.35455702724472543</v>
+        <v>0.35186423166191788</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>-1.1390272447254213E-3</v>
+        <v>1.5537683380821288E-3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -14529,11 +13719,11 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>0.35111800001591276</v>
+        <v>0.34839601322453723</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>-2.6590000015912774E-2</v>
+        <v>-2.3868013224537243E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -14545,11 +13735,11 @@
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>0.34781664200901385</v>
+        <v>0.34506715294599061</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>7.9363579909861315E-3</v>
+        <v>1.0685847054009379E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -14561,11 +13751,11 @@
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>0.34464351413453359</v>
+        <v>0.34186807594978197</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>2.2639485865466435E-2</v>
+        <v>2.5414924050218057E-2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -14577,11 +13767,11 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>0.34159007827596405</v>
+        <v>0.33879012260800817</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>-4.1840782759640649E-3</v>
+        <v>-1.384122608008187E-3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -14593,11 +13783,11 @@
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>0.33864858842281942</v>
+        <v>0.3358254378289936</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>-1.2949588422819402E-2</v>
+        <v>-1.0126437828993584E-2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -14609,11 +13799,11 @@
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>0.33581199757096036</v>
+        <v>0.33296687639346395</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>-2.9744997570960385E-2</v>
+        <v>-2.6899876393463973E-2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -14625,11 +13815,11 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>0.33307387774830793</v>
+        <v>0.33020792164829144</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>1.6580122251692087E-2</v>
+        <v>1.9446078351708584E-2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -14641,11 +13831,11 @@
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>0.33042835102364732</v>
+        <v>0.32754261537603085</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>-1.58313510236473E-2</v>
+        <v>-1.2945615376030839E-2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -14657,11 +13847,11 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>0.32787002975112001</v>
+        <v>0.32496549706089278</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>1.1264970248880013E-2</v>
+        <v>1.4169502939107237E-2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -14673,11 +13863,11 @@
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>0.32539396461717945</v>
+        <v>0.32247155109191833</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>-8.5759646171794657E-3</v>
+        <v>-5.6535510919183407E-3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -14689,11 +13879,11 @@
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>0.32299559930827909</v>
+        <v>0.32005616070034265</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
-        <v>-8.9975993082790917E-3</v>
+        <v>-6.0581607003426519E-3</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -14705,11 +13895,11 @@
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>0.32067073082006914</v>
+        <v>0.31771506763440871</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
-        <v>-1.1417730820069139E-2</v>
+        <v>-8.4620676344087098E-3</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -14721,11 +13911,11 @@
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>0.31841547459282732</v>
+        <v>0.31544433674188671</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
-        <v>-2.6536474592827319E-2</v>
+        <v>-2.3565336741886711E-2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -14737,11 +13927,11 @@
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>0.31622623379129683</v>
+        <v>0.31324032476645114</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
-        <v>3.3776620870318297E-4</v>
+        <v>3.3236752335488728E-3</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -14753,11 +13943,11 @@
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>0.31409967215625811</v>
+        <v>0.31109965277521739</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
-        <v>6.6273278437418703E-3</v>
+        <v>9.6273472247825898E-3</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -14769,11 +13959,11 @@
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>0.31203268994488037</v>
+        <v>0.309019181726085</v>
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
-        <v>-7.9186899448803749E-3</v>
+        <v>-4.9051817260850061E-3</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -14785,11 +13975,11 @@
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>0.31002240255096419</v>
+        <v>0.30699599075893869</v>
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
-        <v>-1.1331402550964209E-2</v>
+        <v>-8.3049907589387018E-3</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -14801,11 +13991,11 @@
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>0.30806612145761569</v>
+        <v>0.30502735785728408</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>3.8476878542384296E-2</v>
+        <v>4.1515642142715914E-2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -14817,11 +14007,11 @@
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>0.30616133722602795</v>
+        <v>0.30311074257894416</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
-        <v>-5.2773372260279672E-3</v>
+        <v>-2.2267425789441742E-3</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -14833,11 +14023,11 @@
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>0.3043057042668077</v>
+        <v>0.30124377059795743</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
-        <v>-2.0664704266807721E-2</v>
+        <v>-1.7602770597957451E-2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -14849,11 +14039,11 @@
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>0.30249702717615612</v>
+        <v>0.29942421983632478</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
-        <v>-2.5868027176156105E-2</v>
+        <v>-2.2795219836324765E-2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -14865,11 +14055,11 @@
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>0.3007332484494305</v>
+        <v>0.2976500079949938</v>
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
-        <v>2.0191751550569514E-2</v>
+        <v>2.3274992005006212E-2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -14881,11 +14071,11 @@
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>0.29901243741014988</v>
+        <v>0.29591918131945266</v>
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
-        <v>-4.707437410149895E-3</v>
+        <v>-1.6141813194526788E-3</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -14897,11 +14087,11 @@
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>0.29733278021416137</v>
+        <v>0.29422990445733166</v>
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
-        <v>-9.8067802141613702E-3</v>
+        <v>-6.7039044573316553E-3</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -14913,11 +14103,11 @@
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>0.29569257080710676</v>
+        <v>0.29258045128414878</v>
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
-        <v>-1.1665708071067482E-3</v>
+        <v>1.9455487158512308E-3</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -14929,11 +14119,11 @@
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>0.2940902027290449</v>
+        <v>0.29096919658932435</v>
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
-        <v>-2.4742202729044926E-2</v>
+        <v>-2.1621196589324376E-2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -14945,11 +14135,11 @@
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>0.29252416167354689</v>
+        <v>0.28939460852827387</v>
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
-        <v>-1.2141161673546896E-2</v>
+        <v>-9.0116085282738734E-3</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -14961,11 +14151,11 @@
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>0.29099301872012145</v>
+        <v>0.28785524175812682</v>
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
-        <v>1.7975981279878539E-2</v>
+        <v>2.1113758241873171E-2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -14977,11 +14167,11 @@
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>0.28949542416877427</v>
+        <v>0.28634973118473539</v>
       </c>
       <c r="D60">
         <f t="shared" si="1"/>
-        <v>-2.1096424168774275E-2</v>
+        <v>-1.7950731184735391E-2</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -14993,11 +14183,11 @@
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>0.28803010191408079</v>
+        <v>0.28487678625734825</v>
       </c>
       <c r="D61">
         <f t="shared" si="1"/>
-        <v>-1.2729101914080776E-2</v>
+        <v>-9.5757862573482289E-3</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -15009,11 +14199,11 @@
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>0.2865958443035756</v>
+        <v>0.28343518575487958</v>
       </c>
       <c r="D62">
         <f t="shared" si="1"/>
-        <v>-1.6877844303575584E-2</v>
+        <v>-1.3717185754879568E-2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -15025,11 +14215,11 @@
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>0.28519150743169835</v>
+        <v>0.28202377301424214</v>
       </c>
       <c r="D63">
         <f t="shared" si="1"/>
-        <v>2.439492568301671E-3</v>
+        <v>5.6072269857578849E-3</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -15041,11 +14231,11 @@
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>0.28381600682613572</v>
+        <v>0.28064145155690634</v>
       </c>
       <c r="D64">
         <f t="shared" si="1"/>
-        <v>-7.6580068261357104E-3</v>
+        <v>-4.483451556906326E-3</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -15057,11 +14247,11 @@
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>0.28246831348827689</v>
+        <v>0.27928718107480455</v>
       </c>
       <c r="D65">
         <f t="shared" si="1"/>
-        <v>-1.7533134882768975E-3</v>
+        <v>1.4278189251954454E-3</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -15072,12 +14262,12 @@
         <v>0.29010900000000001</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C100" si="2">1.6677*A66^-0.307</f>
-        <v>0.28114745025376092</v>
+        <f t="shared" ref="C66:C80" si="2">1.6973*A66^-0.312</f>
+        <v>0.27795997374102976</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D100" si="3">B66-C66</f>
-        <v>8.9615497462390836E-3</v>
+        <f t="shared" ref="D66:D80" si="3">B66-C66</f>
+        <v>1.2149026258970241E-2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -15089,11 +14279,11 @@
       </c>
       <c r="C67">
         <f t="shared" si="2"/>
-        <v>0.27985248844282412</v>
+        <v>0.27665889081457107</v>
       </c>
       <c r="D67">
         <f t="shared" si="3"/>
-        <v>1.5772511557175906E-2</v>
+        <v>1.8966109185428959E-2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -15105,11 +14295,11 @@
       </c>
       <c r="C68">
         <f t="shared" si="2"/>
-        <v>0.27858254477342992</v>
+        <v>0.27538303951164839</v>
       </c>
       <c r="D68">
         <f t="shared" si="3"/>
-        <v>-4.7455447734299216E-3</v>
+        <v>-1.5460395116483894E-3</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -15121,11 +14311,11 @@
       </c>
       <c r="C69">
         <f t="shared" si="2"/>
-        <v>0.2773367785130359</v>
+        <v>0.27413157011913608</v>
       </c>
       <c r="D69">
         <f t="shared" si="3"/>
-        <v>-4.5717785130359179E-3</v>
+        <v>-1.3665701191361013E-3</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -15137,11 +14327,11 @@
       </c>
       <c r="C70">
         <f t="shared" si="2"/>
-        <v>0.27611438884738893</v>
+        <v>0.27290367332813503</v>
       </c>
       <c r="D70">
         <f t="shared" si="3"/>
-        <v>3.3954611152611058E-2</v>
+        <v>3.7165326671864951E-2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -15153,11 +14343,11 @@
       </c>
       <c r="C71">
         <f t="shared" si="2"/>
-        <v>0.27491461244697318</v>
+        <v>0.27169857776802503</v>
       </c>
       <c r="D71">
         <f t="shared" si="3"/>
-        <v>-2.7762612446973173E-2</v>
+        <v>-2.4546577768025019E-2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -15169,11 +14359,11 @@
       </c>
       <c r="C72">
         <f t="shared" si="2"/>
-        <v>0.27373672121371218</v>
+        <v>0.27051554772333614</v>
       </c>
       <c r="D72">
         <f t="shared" si="3"/>
-        <v>1.9958278786287809E-2</v>
+        <v>2.3179452276663848E-2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -15185,11 +14375,11 @@
       </c>
       <c r="C73">
         <f t="shared" si="2"/>
-        <v>0.27258002019227517</v>
+        <v>0.26935388101755559</v>
       </c>
       <c r="D73">
         <f t="shared" si="3"/>
-        <v>-5.1640201922751872E-3</v>
+        <v>-1.9378810175555983E-3</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -15201,11 +14391,11 @@
       </c>
       <c r="C74">
         <f t="shared" si="2"/>
-        <v>0.27144384563189161</v>
+        <v>0.26821290704956191</v>
       </c>
       <c r="D74">
         <f t="shared" si="3"/>
-        <v>2.4706154368108413E-2</v>
+        <v>2.7937092950438114E-2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -15217,11 +14407,11 @@
       </c>
       <c r="C75">
         <f t="shared" si="2"/>
-        <v>0.27032756318595874</v>
+        <v>0.26709198496978342</v>
       </c>
       <c r="D75">
         <f t="shared" si="3"/>
-        <v>-8.8445631859587204E-3</v>
+        <v>-5.6089849697834038E-3</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -15233,11 +14423,11 @@
       </c>
       <c r="C76">
         <f t="shared" si="2"/>
-        <v>0.26923056623795144</v>
+        <v>0.26599050198442126</v>
       </c>
       <c r="D76">
         <f t="shared" si="3"/>
-        <v>-8.568566237951436E-3</v>
+        <v>-5.3285019844212522E-3</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -15249,11 +14439,11 @@
       </c>
       <c r="C77">
         <f t="shared" si="2"/>
-        <v>0.26815227434324368</v>
+        <v>0.26490787177719083</v>
       </c>
       <c r="D77">
         <f t="shared" si="3"/>
-        <v>1.3270725656756299E-2</v>
+        <v>1.651512822280915E-2</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -15265,11 +14455,11 @@
       </c>
       <c r="C78">
         <f t="shared" si="2"/>
-        <v>0.26709213177742541</v>
+        <v>0.26384353303903074</v>
       </c>
       <c r="D78">
         <f t="shared" si="3"/>
-        <v>-1.0186131777425389E-2</v>
+        <v>-6.9375330390307188E-3</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -15281,11 +14471,11 @@
       </c>
       <c r="C79">
         <f t="shared" si="2"/>
-        <v>0.26604960618257534</v>
+        <v>0.26279694809711196</v>
       </c>
       <c r="D79">
         <f t="shared" si="3"/>
-        <v>-2.612606182575361E-3</v>
+        <v>6.4005190288801694E-4</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -15297,331 +14487,11 @@
       </c>
       <c r="C80">
         <f t="shared" si="2"/>
-        <v>0.26502418730373251</v>
+        <v>0.26176760163528034</v>
       </c>
       <c r="D80">
         <f t="shared" si="3"/>
-        <v>-9.3011873037325277E-3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>405</v>
-      </c>
-      <c r="B81">
-        <v>0.29652400000000001</v>
-      </c>
-      <c r="C81">
-        <f t="shared" si="2"/>
-        <v>0.26401538580851242</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="3"/>
-        <v>3.2508614191487595E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>410</v>
-      </c>
-      <c r="B82">
-        <v>0.24779499999999999</v>
-      </c>
-      <c r="C82">
-        <f t="shared" si="2"/>
-        <v>0.26302273218344641</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="3"/>
-        <v>-1.5227732183446419E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>415</v>
-      </c>
-      <c r="B83">
-        <v>0.26207999999999998</v>
-      </c>
-      <c r="C83">
-        <f t="shared" si="2"/>
-        <v>0.26204577570118798</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="3"/>
-        <v>3.4224298812002285E-5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>420</v>
-      </c>
-      <c r="B84">
-        <v>0.28751300000000002</v>
-      </c>
-      <c r="C84">
-        <f t="shared" si="2"/>
-        <v>0.26108408345324297</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="3"/>
-        <v>2.6428916546757053E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>425</v>
-      </c>
-      <c r="B85">
-        <v>0.26453900000000002</v>
-      </c>
-      <c r="C85">
-        <f t="shared" si="2"/>
-        <v>0.26013723944334294</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="3"/>
-        <v>4.4017605566570861E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>430</v>
-      </c>
-      <c r="B86">
-        <v>0.26252300000000001</v>
-      </c>
-      <c r="C86">
-        <f t="shared" si="2"/>
-        <v>0.25920484373699443</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="3"/>
-        <v>3.3181562630055783E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>435</v>
-      </c>
-      <c r="B87">
-        <v>0.28914699999999999</v>
-      </c>
-      <c r="C87">
-        <f t="shared" si="2"/>
-        <v>0.25828651166311511</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="3"/>
-        <v>3.0860488336884873E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>440</v>
-      </c>
-      <c r="B88">
-        <v>0.27198</v>
-      </c>
-      <c r="C88">
-        <f t="shared" si="2"/>
-        <v>0.25738187306401117</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="3"/>
-        <v>1.4598126935988831E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>445</v>
-      </c>
-      <c r="B89">
-        <v>0.26299600000000001</v>
-      </c>
-      <c r="C89">
-        <f t="shared" si="2"/>
-        <v>0.25649057159025296</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="3"/>
-        <v>6.5054284097470494E-3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>450</v>
-      </c>
-      <c r="B90">
-        <v>0.25838</v>
-      </c>
-      <c r="C90">
-        <f t="shared" si="2"/>
-        <v>0.25561226403729337</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="3"/>
-        <v>2.76773596270663E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>455</v>
-      </c>
-      <c r="B91">
-        <v>0.246671</v>
-      </c>
-      <c r="C91">
-        <f t="shared" si="2"/>
-        <v>0.25474661972092316</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="3"/>
-        <v>-8.0756197209231606E-3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>460</v>
-      </c>
-      <c r="B92">
-        <v>0.22783200000000001</v>
-      </c>
-      <c r="C92">
-        <f t="shared" si="2"/>
-        <v>0.2538933198888903</v>
-      </c>
-      <c r="D92">
-        <f t="shared" si="3"/>
-        <v>-2.6061319888890294E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>465</v>
-      </c>
-      <c r="B93">
-        <v>0.24201500000000001</v>
-      </c>
-      <c r="C93">
-        <f t="shared" si="2"/>
-        <v>0.25305205716622287</v>
-      </c>
-      <c r="D93">
-        <f t="shared" si="3"/>
-        <v>-1.1037057166222858E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>470</v>
-      </c>
-      <c r="B94">
-        <v>0.25579800000000003</v>
-      </c>
-      <c r="C94">
-        <f t="shared" si="2"/>
-        <v>0.25222253503198377</v>
-      </c>
-      <c r="D94">
-        <f t="shared" si="3"/>
-        <v>3.5754649680162509E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>475</v>
-      </c>
-      <c r="B95">
-        <v>0.26581300000000002</v>
-      </c>
-      <c r="C95">
-        <f t="shared" si="2"/>
-        <v>0.25140446732536498</v>
-      </c>
-      <c r="D95">
-        <f t="shared" si="3"/>
-        <v>1.4408532674635044E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>480</v>
-      </c>
-      <c r="B96">
-        <v>0.25726599999999999</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="2"/>
-        <v>0.25059757777918462</v>
-      </c>
-      <c r="D96">
-        <f t="shared" si="3"/>
-        <v>6.6684222208153732E-3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>485</v>
-      </c>
-      <c r="B97">
-        <v>0.23630999999999999</v>
-      </c>
-      <c r="C97">
-        <f t="shared" si="2"/>
-        <v>0.24980159957899992</v>
-      </c>
-      <c r="D97">
-        <f t="shared" si="3"/>
-        <v>-1.3491599578999924E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>490</v>
-      </c>
-      <c r="B98">
-        <v>0.23403099999999999</v>
-      </c>
-      <c r="C98">
-        <f t="shared" si="2"/>
-        <v>0.24901627494618128</v>
-      </c>
-      <c r="D98">
-        <f t="shared" si="3"/>
-        <v>-1.4985274946181293E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>495</v>
-      </c>
-      <c r="B99">
-        <v>0.24241599999999999</v>
-      </c>
-      <c r="C99">
-        <f t="shared" si="2"/>
-        <v>0.24824135474341516</v>
-      </c>
-      <c r="D99">
-        <f t="shared" si="3"/>
-        <v>-5.8253547434151676E-3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>500</v>
-      </c>
-      <c r="B100">
-        <v>0.26608300000000001</v>
-      </c>
-      <c r="C100">
-        <f t="shared" si="2"/>
-        <v>0.24747659810121708</v>
-      </c>
-      <c r="D100">
-        <f t="shared" si="3"/>
-        <v>1.8606401898782932E-2</v>
+        <v>-6.0446016352803666E-3</v>
       </c>
     </row>
   </sheetData>
@@ -15632,10 +14502,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15645,15 +14515,15 @@
         <v>5</v>
       </c>
       <c r="B1">
-        <v>0.987035</v>
+        <v>1.23729</v>
       </c>
       <c r="C1">
-        <f>1.619*A1^-0.236</f>
-        <v>1.1073627941492401</v>
+        <f>1.7323*A1^-0.249</f>
+        <v>1.1603247990497847</v>
       </c>
       <c r="D1">
         <f>B1-C1</f>
-        <v>-0.12032779414924011</v>
+        <v>7.6965200950215307E-2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -15664,12 +14534,12 @@
         <v>0.94161499999999998</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C65" si="0">1.619*A2^-0.236</f>
-        <v>0.9402575919670042</v>
+        <f t="shared" ref="C2:C65" si="0">1.7323*A2^-0.249</f>
+        <v>0.97638951118730088</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D65" si="1">B2-C2</f>
-        <v>1.3574080329957772E-3</v>
+        <v>-3.4774511187300905E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -15681,11 +14551,11 @@
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
-        <v>0.85445522850200772</v>
+        <v>0.88262531984035153</v>
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
-        <v>0.13366777149799225</v>
+        <v>0.10549768015964844</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -15697,11 +14567,11 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>0.79836919203232748</v>
+        <v>0.82161174038276574</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>5.2485807967672549E-2</v>
+        <v>2.9243259617234285E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -15713,11 +14583,11 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>0.75741343907721581</v>
+        <v>0.77720581844364323</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>-1.9191439077215766E-2</v>
+        <v>-3.8983818443643181E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -15729,11 +14599,11 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0.72551472727793143</v>
+        <v>0.74271109719122719</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>-3.6333727277931382E-2</v>
+        <v>-5.3530097191227144E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -15745,11 +14615,11 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0.69959515040478071</v>
+        <v>0.71474341416059994</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>-4.0114150404780724E-2</v>
+        <v>-5.526241416059996E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -15761,11 +14631,11 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>0.6778922842334455</v>
+        <v>0.69136942193687989</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>4.9084715766554488E-2</v>
+        <v>3.5607578063120093E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -15777,11 +14647,11 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>0.6593085313791236</v>
+        <v>0.67138740451056933</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>2.9188468620876429E-2</v>
+        <v>1.7109595489430696E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -15793,11 +14663,11 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0.64311690812885614</v>
+        <v>0.65400274973314221</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>-1.1052908128856176E-2</v>
+        <v>-2.1938749733142249E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -15809,11 +14679,11 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>0.62881262696386064</v>
+        <v>0.63866452796674256</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>-8.5036269638606443E-3</v>
+        <v>-1.8355527966742557E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -15825,11 +14695,11 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>0.61603183167359432</v>
+        <v>0.62497614955208081</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>1.8944168326405664E-2</v>
+        <v>9.9998504479191785E-3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -15841,11 +14711,11 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>0.60450416376646376</v>
+        <v>0.61264328765064768</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>6.9668362335362222E-3</v>
+        <v>-1.1722876506476965E-3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -15857,11 +14727,11 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>0.59402361624111144</v>
+        <v>0.6014419181147469</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>-2.0473616241111436E-2</v>
+        <v>-2.7891918114746894E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -15873,11 +14743,11 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>0.5844298513337931</v>
+        <v>0.59119785653755574</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>2.0935148666206937E-2</v>
+        <v>1.4167143462444298E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -15889,11 +14759,11 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>0.57559579403789285</v>
+        <v>0.58177318323938865</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>3.7731205962107106E-2</v>
+        <v>3.1553816760611308E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -15905,11 +14775,11 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>0.56741914143202565</v>
+        <v>0.5730569617265151</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>-2.782214143202566E-2</v>
+        <v>-3.3459961726515108E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -15921,11 +14791,11 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>0.55981639924439242</v>
+        <v>0.5649587255604791</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>2.48456007556076E-2</v>
+        <v>1.9703274439520913E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -15937,11 +14807,11 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>0.55271859779500709</v>
+        <v>0.55740380328054828</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>3.7723402204992929E-2</v>
+        <v>3.303819671945174E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -15953,11 +14823,11 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>0.54606815271870879</v>
+        <v>0.55032989525865972</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>-2.3109152718708836E-2</v>
+        <v>-2.7370895258659766E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -15969,11 +14839,11 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>0.53981652377734757</v>
+        <v>0.54368452268184031</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>1.4634762226524156E-3</v>
+        <v>-2.4045226818403265E-3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -15985,11 +14855,11 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>0.53392244127339095</v>
+        <v>0.53742309634749141</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>-1.6454441273390907E-2</v>
+        <v>-1.9955096347491375E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -16001,11 +14871,11 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>0.52835054340659993</v>
+        <v>0.53150743389823274</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>-5.0642543406599905E-2</v>
+        <v>-5.3799433898232718E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -16017,11 +14887,11 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>0.52307031596582021</v>
+        <v>0.52590460676579553</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>3.0932684034179814E-2</v>
+        <v>2.8098393234204488E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -16033,11 +14903,11 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>0.51805525770397221</v>
+        <v>0.52058603308084261</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>-8.9362577039722169E-3</v>
+        <v>-1.1467033080842626E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -16049,11 +14919,11 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>0.51328221641559013</v>
+        <v>0.51552675651788038</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>-3.350321641559012E-2</v>
+        <v>-3.5747756517880369E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -16065,11 +14935,11 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>0.50873085569547227</v>
+        <v>0.51070486740282039</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>1.3836144304527731E-2</v>
+        <v>1.1862132597179609E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -16081,11 +14951,11 @@
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>0.50438322285110582</v>
+        <v>0.50610103387992367</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>-2.1820222851105797E-2</v>
+        <v>-2.3538033879923648E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -16097,11 +14967,11 @@
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>0.50022339591296794</v>
+        <v>0.50169811909609263</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>5.3188604087032076E-2</v>
+        <v>5.1713880903907383E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -16113,11 +14983,11 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>0.49623719307900815</v>
+        <v>0.49748086624744892</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>-1.3501193079008156E-2</v>
+        <v>-1.4744866247448918E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -16129,11 +14999,11 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>0.49241193187027649</v>
+        <v>0.49343563763323445</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>-1.9333931870276488E-2</v>
+        <v>-2.0357637633234449E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -16145,11 +15015,11 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>0.48873622818816298</v>
+        <v>0.48955019703979852</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>1.7182771811837028E-2</v>
+        <v>1.636880296020149E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -16161,11 +15031,11 @@
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>0.48519982764107755</v>
+        <v>0.48581352715115711</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>8.2111723589224361E-3</v>
+        <v>7.5974728488428789E-3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -16177,11 +15047,11 @@
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>0.48179346315202148</v>
+        <v>0.48221567547366107</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>4.0145536847978558E-2</v>
+        <v>3.9723324526338977E-2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -16193,11 +15063,11 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>0.47850873411086825</v>
+        <v>0.47874762362642442</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>8.542658891317334E-4</v>
+        <v>6.1537637357556019E-4</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -16209,11 +15079,11 @@
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>0.47533800329779885</v>
+        <v>0.47540117589724029</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>3.5699967022011503E-3</v>
+        <v>3.5068241027597091E-3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -16225,11 +15095,11 @@
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>0.47227430855034586</v>
+        <v>0.47216886377562145</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>-6.6343085503458576E-3</v>
+        <v>-6.5288637756214518E-3</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -16241,11 +15111,11 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>0.46931128672910094</v>
+        <v>0.46904386380841778</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>2.6071327089904894E-4</v>
+        <v>5.2813619158220693E-4</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -16257,11 +15127,11 @@
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>0.46644310799544236</v>
+        <v>0.46601992662185338</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>-8.8251079954423384E-3</v>
+        <v>-8.4019266218533506E-3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -16273,11 +15143,11 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>0.46366441877761527</v>
+        <v>0.46309131534842468</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>-3.5896418777615291E-2</v>
+        <v>-3.53233153484247E-2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -16289,11 +15159,11 @@
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>0.46097029209085699</v>
+        <v>0.46025275201154153</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>2.3540707909143033E-2</v>
+        <v>2.4258247988458492E-2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -16305,11 +15175,11 @@
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>0.45835618410932699</v>
+        <v>0.45749937067288915</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
-        <v>3.846181589067299E-2</v>
+        <v>3.9318629327110832E-2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -16321,11 +15191,11 @@
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>0.45581789607480488</v>
+        <v>0.45482667635079133</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
-        <v>4.817103925195132E-3</v>
+        <v>5.8083236492086909E-3</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -16337,11 +15207,11 @@
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>0.45335154077896944</v>
+        <v>0.45223050888269323</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
-        <v>-1.5722540778969452E-2</v>
+        <v>-1.4601508882693237E-2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -16353,11 +15223,11 @@
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>0.4509535129798754</v>
+        <v>0.44970701103924415</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
-        <v>-8.1755129798753989E-3</v>
+        <v>-6.9290110392441484E-3</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -16369,11 +15239,11 @@
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>0.44862046321469196</v>
+        <v>0.44725260030751596</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
-        <v>1.4982536785308032E-2</v>
+        <v>1.635039969248403E-2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -16385,11 +15255,11 @@
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>0.44634927455429169</v>
+        <v>0.44486394385148437</v>
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
-        <v>-4.5765274554291691E-2</v>
+        <v>-4.4279943851484371E-2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -16401,11 +15271,11 @@
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>0.44413704191434039</v>
+        <v>0.44253793623277821</v>
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
-        <v>4.3147958085659632E-2</v>
+        <v>4.4747063767221817E-2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -16417,11 +15287,11 @@
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>0.44198105359491263</v>
+        <v>0.44027167953688817</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>1.0251946405087364E-2</v>
+        <v>1.1961320463111824E-2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -16433,11 +15303,11 @@
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>0.43987877476849307</v>
+        <v>0.43806246560186735</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
-        <v>-2.3718774768493101E-2</v>
+        <v>-2.1902465601867371E-2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -16449,11 +15319,11 @@
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>0.43782783267628284</v>
+        <v>0.43590776008994364</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
-        <v>-4.5980832676282835E-2</v>
+        <v>-4.406076008994364E-2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -16465,11 +15335,11 @@
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>0.43582600332639193</v>
+        <v>0.43380518817892744</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
-        <v>-4.2259003326391931E-2</v>
+        <v>-4.0238188178927436E-2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -16481,11 +15351,11 @@
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>0.43387119951588915</v>
+        <v>0.43175252168103356</v>
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
-        <v>5.6628800484110842E-2</v>
+        <v>5.8747478318966428E-2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -16497,11 +15367,11 @@
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>0.43196146002271441</v>
+        <v>0.42974766742274928</v>
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
-        <v>4.8355399772855856E-3</v>
+        <v>7.0493325772507109E-3</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -16513,11 +15383,11 @@
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>0.43009493983386327</v>
+        <v>0.42778865674146294</v>
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
-        <v>1.4082060166136723E-2</v>
+        <v>1.6388343258537053E-2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -16529,11 +15399,11 @@
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>0.42826990129363385</v>
+        <v>0.4258736359733738</v>
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
-        <v>3.9310098706366148E-2</v>
+        <v>4.1706364026626197E-2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -16545,11 +15415,11 @@
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>0.42648470607058642</v>
+        <v>0.42400085782327018</v>
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
-        <v>7.4672939294135876E-3</v>
+        <v>9.9511421767298214E-3</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -16561,11 +15431,11 @@
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>0.42473780785459248</v>
+        <v>0.42216867352052923</v>
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
-        <v>-3.319180785459247E-2</v>
+        <v>-3.062267352052922E-2</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -16577,11 +15447,11 @@
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>0.42302774570629037</v>
+        <v>0.42037552567752001</v>
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
-        <v>3.7320254293709609E-2</v>
+        <v>3.9972474322479967E-2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -16593,11 +15463,11 @@
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>0.42135313799070151</v>
+        <v>0.41861994177678591</v>
       </c>
       <c r="D60">
         <f t="shared" si="1"/>
-        <v>9.5078620092984845E-3</v>
+        <v>1.2241058223214085E-2</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -16609,11 +15479,11 @@
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>0.41971267683489843</v>
+        <v>0.41690052822218093</v>
       </c>
       <c r="D61">
         <f t="shared" si="1"/>
-        <v>9.2523231651015503E-3</v>
+        <v>1.2064471777819052E-2</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -16625,11 +15495,11 @@
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>0.41810512305668873</v>
+        <v>0.41521596489677065</v>
       </c>
       <c r="D62">
         <f t="shared" si="1"/>
-        <v>-2.6935123056688715E-2</v>
+        <v>-2.4045964896770633E-2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -16641,11 +15511,11 @@
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>0.4165293015173942</v>
+        <v>0.41356500017691933</v>
       </c>
       <c r="D63">
         <f t="shared" si="1"/>
-        <v>2.3142698482605806E-2</v>
+        <v>2.6106999823080679E-2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -16657,11 +15527,11 @@
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>0.41498409685715537</v>
+        <v>0.41194644635775562</v>
       </c>
       <c r="D64">
         <f t="shared" si="1"/>
-        <v>-3.3863096857155384E-2</v>
+        <v>-3.0825446357755637E-2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -16673,11 +15543,11 @@
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>0.41346844957583756</v>
+        <v>0.41035917545023209</v>
       </c>
       <c r="D65">
         <f t="shared" si="1"/>
-        <v>-2.7098449575837569E-2</v>
+        <v>-2.3989175450232103E-2</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -16688,12 +15558,12 @@
         <v>0.40826600000000002</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C100" si="2">1.619*A66^-0.236</f>
-        <v>0.41198135242669254</v>
+        <f t="shared" ref="C66:C80" si="2">1.7323*A66^-0.249</f>
+        <v>0.4088021153143902</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D100" si="3">B66-C66</f>
-        <v>-3.7153524266925197E-3</v>
+        <f t="shared" ref="D66:D80" si="3">B66-C66</f>
+        <v>-5.3611531439018423E-4</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -16705,11 +15575,11 @@
       </c>
       <c r="C67">
         <f t="shared" si="2"/>
-        <v>0.41052184709349432</v>
+        <v>0.40727424609729335</v>
       </c>
       <c r="D67">
         <f t="shared" si="3"/>
-        <v>-3.7968470934943155E-3</v>
+        <v>-5.4924609729334328E-4</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -16721,11 +15591,11 @@
       </c>
       <c r="C68">
         <f t="shared" si="2"/>
-        <v>0.40908902112500517</v>
+        <v>0.40577459694747131</v>
       </c>
       <c r="D68">
         <f t="shared" si="3"/>
-        <v>-3.04102112500515E-3</v>
+        <v>2.73403052528709E-4</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -16737,11 +15607,11 @@
       </c>
       <c r="C69">
         <f t="shared" si="2"/>
-        <v>0.40768200510338232</v>
+        <v>0.40430224298069495</v>
       </c>
       <c r="D69">
         <f t="shared" si="3"/>
-        <v>-2.4233005103382332E-2</v>
+        <v>-2.0853242980694964E-2</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -16753,11 +15623,11 @@
       </c>
       <c r="C70">
         <f t="shared" si="2"/>
-        <v>0.40629997002556717</v>
+        <v>0.40285630247451992</v>
       </c>
       <c r="D70">
         <f t="shared" si="3"/>
-        <v>2.4569029974432832E-2</v>
+        <v>2.8012697525480079E-2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -16769,11 +15639,11 @@
       </c>
       <c r="C71">
         <f t="shared" si="2"/>
-        <v>0.4049421248788494</v>
+        <v>0.40143593427135638</v>
       </c>
       <c r="D71">
         <f t="shared" si="3"/>
-        <v>-9.1521248788494214E-3</v>
+        <v>-5.6459342713564009E-3</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -16785,11 +15655,11 @@
       </c>
       <c r="C72">
         <f t="shared" si="2"/>
-        <v>0.40360771439369658</v>
+        <v>0.40004033537187084</v>
       </c>
       <c r="D72">
         <f t="shared" si="3"/>
-        <v>3.0528560630344037E-4</v>
+        <v>3.8726646281291854E-3</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -16801,11 +15671,11 @@
       </c>
       <c r="C73">
         <f t="shared" si="2"/>
-        <v>0.40229601695862316</v>
+        <v>0.3986687387023391</v>
       </c>
       <c r="D73">
         <f t="shared" si="3"/>
-        <v>1.0017983041376854E-2</v>
+        <v>1.3645261297660916E-2</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -16817,11 +15687,11 @@
       </c>
       <c r="C74">
         <f t="shared" si="2"/>
-        <v>0.40100634268337532</v>
+        <v>0.39732041104118637</v>
       </c>
       <c r="D74">
         <f t="shared" si="3"/>
-        <v>2.2064657316624658E-2</v>
+        <v>2.5750588958813603E-2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -16833,11 +15703,11 @@
       </c>
       <c r="C75">
         <f t="shared" si="2"/>
-        <v>0.39973803159803206</v>
+        <v>0.39599465109138288</v>
       </c>
       <c r="D75">
         <f t="shared" si="3"/>
-        <v>6.6829684019679148E-3</v>
+        <v>1.04263489086171E-2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -16849,11 +15719,11 @@
       </c>
       <c r="C76">
         <f t="shared" si="2"/>
-        <v>0.39849045197681615</v>
+        <v>0.39469078768664201</v>
       </c>
       <c r="D76">
         <f t="shared" si="3"/>
-        <v>1.6743548023183841E-2</v>
+        <v>2.0543212313357984E-2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -16865,11 +15735,11 @@
       </c>
       <c r="C77">
         <f t="shared" si="2"/>
-        <v>0.39726299877646032</v>
+        <v>0.39340817812050566</v>
       </c>
       <c r="D77">
         <f t="shared" si="3"/>
-        <v>6.0080012235396718E-3</v>
+        <v>9.8628218794943323E-3</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -16881,11 +15751,11 @@
       </c>
       <c r="C78">
         <f t="shared" si="2"/>
-        <v>0.39605509217992807</v>
+        <v>0.39214620658842808</v>
       </c>
       <c r="D78">
         <f t="shared" si="3"/>
-        <v>-9.5420921799280745E-3</v>
+        <v>-5.6332065884280857E-3</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -16897,11 +15767,11 @@
       </c>
       <c r="C79">
         <f t="shared" si="2"/>
-        <v>0.39486617623712816</v>
+        <v>0.39090428273387046</v>
       </c>
       <c r="D79">
         <f t="shared" si="3"/>
-        <v>-2.1678176237128144E-2</v>
+        <v>-1.7716282733870437E-2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -16913,331 +15783,11 @@
       </c>
       <c r="C80">
         <f t="shared" si="2"/>
-        <v>0.39369571759502875</v>
+        <v>0.38968184029024827</v>
       </c>
       <c r="D80">
         <f t="shared" si="3"/>
-        <v>-1.0663717595028765E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>405</v>
-      </c>
-      <c r="B81">
-        <v>0.38437300000000002</v>
-      </c>
-      <c r="C81">
-        <f t="shared" si="2"/>
-        <v>0.39254320431025203</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="3"/>
-        <v>-8.170204310252005E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>410</v>
-      </c>
-      <c r="B82">
-        <v>0.38827299999999998</v>
-      </c>
-      <c r="C82">
-        <f t="shared" si="2"/>
-        <v>0.39140814473785002</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="3"/>
-        <v>-3.1351447378500374E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>415</v>
-      </c>
-      <c r="B83">
-        <v>0.36977700000000002</v>
-      </c>
-      <c r="C83">
-        <f t="shared" si="2"/>
-        <v>0.39029006649050807</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="3"/>
-        <v>-2.0513066490508047E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>420</v>
-      </c>
-      <c r="B84">
-        <v>0.434581</v>
-      </c>
-      <c r="C84">
-        <f t="shared" si="2"/>
-        <v>0.38918851546292615</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="3"/>
-        <v>4.5392484537073841E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>425</v>
-      </c>
-      <c r="B85">
-        <v>0.38973799999999997</v>
-      </c>
-      <c r="C85">
-        <f t="shared" si="2"/>
-        <v>0.38810305491657249</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="3"/>
-        <v>1.6349450834274859E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>430</v>
-      </c>
-      <c r="B86">
-        <v>0.38466899999999998</v>
-      </c>
-      <c r="C86">
-        <f t="shared" si="2"/>
-        <v>0.38703326462041254</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="3"/>
-        <v>-2.3642646204125595E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>435</v>
-      </c>
-      <c r="B87">
-        <v>0.37962800000000002</v>
-      </c>
-      <c r="C87">
-        <f t="shared" si="2"/>
-        <v>0.38597874004358301</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="3"/>
-        <v>-6.3507400435829919E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>440</v>
-      </c>
-      <c r="B88">
-        <v>0.37884499999999999</v>
-      </c>
-      <c r="C88">
-        <f t="shared" si="2"/>
-        <v>0.3849390915963144</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="3"/>
-        <v>-6.0940915963144104E-3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>445</v>
-      </c>
-      <c r="B89">
-        <v>0.39632000000000001</v>
-      </c>
-      <c r="C89">
-        <f t="shared" si="2"/>
-        <v>0.38391394391570532</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="3"/>
-        <v>1.2406056084294681E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>450</v>
-      </c>
-      <c r="B90">
-        <v>0.38678000000000001</v>
-      </c>
-      <c r="C90">
-        <f t="shared" si="2"/>
-        <v>0.38290293519322843</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="3"/>
-        <v>3.8770648067715796E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>455</v>
-      </c>
-      <c r="B91">
-        <v>0.34986800000000001</v>
-      </c>
-      <c r="C91">
-        <f t="shared" si="2"/>
-        <v>0.38190571654109556</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="3"/>
-        <v>-3.2037716541095551E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>460</v>
-      </c>
-      <c r="B92">
-        <v>0.38453599999999999</v>
-      </c>
-      <c r="C92">
-        <f t="shared" si="2"/>
-        <v>0.38092195139483753</v>
-      </c>
-      <c r="D92">
-        <f t="shared" si="3"/>
-        <v>3.6140486051624565E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>465</v>
-      </c>
-      <c r="B93">
-        <v>0.4113</v>
-      </c>
-      <c r="C93">
-        <f t="shared" si="2"/>
-        <v>0.37995131494965884</v>
-      </c>
-      <c r="D93">
-        <f t="shared" si="3"/>
-        <v>3.1348685050341163E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>470</v>
-      </c>
-      <c r="B94">
-        <v>0.35229300000000002</v>
-      </c>
-      <c r="C94">
-        <f t="shared" si="2"/>
-        <v>0.37899349362831897</v>
-      </c>
-      <c r="D94">
-        <f t="shared" si="3"/>
-        <v>-2.6700493628318944E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>475</v>
-      </c>
-      <c r="B95">
-        <v>0.41228100000000001</v>
-      </c>
-      <c r="C95">
-        <f t="shared" si="2"/>
-        <v>0.37804818457846134</v>
-      </c>
-      <c r="D95">
-        <f t="shared" si="3"/>
-        <v>3.4232815421538665E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>480</v>
-      </c>
-      <c r="B96">
-        <v>0.34791699999999998</v>
-      </c>
-      <c r="C96">
-        <f t="shared" si="2"/>
-        <v>0.37711509519746922</v>
-      </c>
-      <c r="D96">
-        <f t="shared" si="3"/>
-        <v>-2.9198095197469243E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>485</v>
-      </c>
-      <c r="B97">
-        <v>0.385077</v>
-      </c>
-      <c r="C97">
-        <f t="shared" si="2"/>
-        <v>0.37619394268307244</v>
-      </c>
-      <c r="D97">
-        <f t="shared" si="3"/>
-        <v>8.8830573169275673E-3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>490</v>
-      </c>
-      <c r="B98">
-        <v>0.377635</v>
-      </c>
-      <c r="C98">
-        <f t="shared" si="2"/>
-        <v>0.37528445360805984</v>
-      </c>
-      <c r="D98">
-        <f t="shared" si="3"/>
-        <v>2.3505463919401559E-3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>495</v>
-      </c>
-      <c r="B99">
-        <v>0.42979299999999998</v>
-      </c>
-      <c r="C99">
-        <f t="shared" si="2"/>
-        <v>0.37438636351757199</v>
-      </c>
-      <c r="D99">
-        <f t="shared" si="3"/>
-        <v>5.5406636482427996E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>500</v>
-      </c>
-      <c r="B100">
-        <v>0.36668699999999999</v>
-      </c>
-      <c r="C100">
-        <f t="shared" si="2"/>
-        <v>0.3734994165475623</v>
-      </c>
-      <c r="D100">
-        <f t="shared" si="3"/>
-        <v>-6.8124165475623166E-3</v>
+        <v>-6.6498402902482878E-3</v>
       </c>
     </row>
   </sheetData>
